--- a/SCD0011-005 - Penambahan Kriteria Lead yang ada di Store, termasuk Free, Dedicated, Kelolaan dan Prospek/Default.xlsx
+++ b/SCD0011-005 - Penambahan Kriteria Lead yang ada di Store, termasuk Free, Dedicated, Kelolaan dan Prospek/Default.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="SCD0174- Tambah Leads di Store" sheetId="2" r:id="rId2"/>
+    <sheet name="SCD0011-005-Tambah Lead diStore" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
